--- a/loginBase.xlsx
+++ b/loginBase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>hZq2y0XaFfsi</t>
+  </si>
+  <si>
+    <t>renea.walter@hotmail.com</t>
+  </si>
+  <si>
+    <t>IhpWu9xxTpab</t>
   </si>
 </sst>
 </file>
@@ -370,16 +376,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -412,6 +418,14 @@
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/loginBase.xlsx
+++ b/loginBase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -49,6 +49,42 @@
   </si>
   <si>
     <t>IhpWu9xxTpab</t>
+  </si>
+  <si>
+    <t>deana.mraz@yahoo.com</t>
+  </si>
+  <si>
+    <t>wXsBEU7eGSJT</t>
+  </si>
+  <si>
+    <t>ayesha.gleichner@hotmail.com</t>
+  </si>
+  <si>
+    <t>TLUzxUfT9hlP</t>
+  </si>
+  <si>
+    <t>celina.schroeder@yahoo.com</t>
+  </si>
+  <si>
+    <t>eQQcWqW2cXmH</t>
+  </si>
+  <si>
+    <t>tiffiny.denesik@gmail.com</t>
+  </si>
+  <si>
+    <t>dgaH40cr1hEs</t>
+  </si>
+  <si>
+    <t>virgie.schiller@hotmail.com</t>
+  </si>
+  <si>
+    <t>MBqBKb4GzICf</t>
+  </si>
+  <si>
+    <t>elke.kerluke@hotmail.com</t>
+  </si>
+  <si>
+    <t>3GqPmlntGUEu</t>
   </si>
 </sst>
 </file>
@@ -376,16 +412,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -428,6 +464,54 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/loginBase.xlsx
+++ b/loginBase.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Username</t>
   </si>
@@ -85,12 +85,73 @@
   </si>
   <si>
     <t>3GqPmlntGUEu</t>
+  </si>
+  <si>
+    <t>jeffrey.kris@hotmail.com</t>
+  </si>
+  <si>
+    <t>QzXCS84LUgRf</t>
+  </si>
+  <si>
+    <t>kenton.koch@hotmail.com</t>
+  </si>
+  <si>
+    <t>3o5tWgDN3GTjK3C</t>
+  </si>
+  <si>
+    <t>stephaine.rosenbaum@gmail.com</t>
+  </si>
+  <si>
+    <t>PJJEkubZOUs3y3a</t>
+  </si>
+  <si>
+    <t>larry.corkery@gmail.com</t>
+  </si>
+  <si>
+    <t>HrYIiC3lGLWuFdy</t>
+  </si>
+  <si>
+    <t>tereasa.parker@hotmail.com</t>
+  </si>
+  <si>
+    <t>aFcxwu4BqsSlbxI</t>
+  </si>
+  <si>
+    <t>hung.kling@yahoo.com</t>
+  </si>
+  <si>
+    <t>fxZSJIbKAZA4dL6</t>
+  </si>
+  <si>
+    <t>lewis.kertzmann@yahoo.com</t>
+  </si>
+  <si>
+    <t>eTM0YK5LlPXZDGI</t>
+  </si>
+  <si>
+    <t>charlsie.bergstrom@yahoo.com</t>
+  </si>
+  <si>
+    <t>Iq0SlM0xlHEc5nM</t>
+  </si>
+  <si>
+    <t>brandee.larkin@hotmail.com</t>
+  </si>
+  <si>
+    <t>0pSA6NxmkhHN3u8</t>
+  </si>
+  <si>
+    <t>jovita.collier@gmail.com</t>
+  </si>
+  <si>
+    <t>UAYj5Gx4GHIHrFT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,16 +473,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -512,6 +573,86 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
